--- a/biology/Zoologie/Burhinidae/Burhinidae.xlsx
+++ b/biology/Zoologie/Burhinidae/Burhinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des burhinidés (ou Burhinidae) est celle des œdicnèmes, limicoles terrestres de taille moyenne (de 32 à 59 cm), aux longues pattes, longues ailes, et au plumage mimétique. Le bec est généralement court, mais grand et épais chez quelques espèces.
 Ces oiseaux se trouvent dans toutes les régions du monde sauf l'Antarctique, mais ils sont principalement tropicaux. Ils fréquentent les zones ouvertes semi-arides à arides, ou parfois près de l'eau ; cette espèce est strictement côtière.
@@ -512,7 +524,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Burhinus Illiger, 1811
 Esacus Lesson, 1831</t>
@@ -543,7 +557,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Burhinus oedicnemus – Œdicnème criard
@@ -583,7 +599,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Burhinus œdicnemus
